--- a/Profils/DonnéesPDI-80_EnR-SaisonEte.xlsx
+++ b/Profils/DonnéesPDI-80_EnR-SaisonEte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison été/V2 Données Ete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison été/V4 Données Ete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2A4289-7E1E-4F97-A2D2-C88A6F46F966}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37D6F078-17CF-4D52-8DD7-35B1F5519765}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:A4278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,42 +375,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41.449599874264877</v>
+        <v>6.0950544197194176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44.49689285885799</v>
+        <v>6.6968928588579901</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>34.528423552627537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>23.542778745530534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>16.205013686788632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.1481307819587361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12.525957747770121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5.8859185428700087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -435,52 +435,52 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>19.085735397484431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>32.025538467079656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>52.785182141251141</v>
+        <v>0.39427305034205345</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>73.449433810078915</v>
+        <v>9.7130701737152787</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>57.51194554317118</v>
+        <v>13.739218270443915</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>65.226254895155222</v>
+        <v>4.3808003497006869</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>61.276353562275951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51.435597765582571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>12.848128708202932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21.909324097479622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -660,57 +660,57 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>31.252712463315945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>72.295938948151871</v>
+        <v>7.4050298572428135</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>95</v>
+        <v>33.705521930670962</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>95</v>
+        <v>61.710315733936874</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>95</v>
+        <v>92.646479941705863</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>95</v>
+        <v>88.641498617060037</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>95</v>
+        <v>85.280374356589945</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>95</v>
+        <v>78.788334795876906</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>95</v>
+        <v>41.798384435043424</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>91.388504025269256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>27.394735225035149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,12 +825,12 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>15.070437518827568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>16.309960358519692</v>
+        <v>0.30086944942878208</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -855,37 +855,37 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>30.46008827651238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>55.659656498714241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>86.018284851104397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>95</v>
+        <v>19.556865441622673</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>95</v>
+        <v>41.920753712022943</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>95</v>
+        <v>60.164079055938998</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>95</v>
+        <v>86.03456230654038</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -920,32 +920,32 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>95</v>
+        <v>92.778041544332922</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>95</v>
+        <v>66.452218295959213</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>95</v>
+        <v>6.4463781853981672</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>80.832919346177505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>40.938283279415664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -1060,117 +1060,117 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>9.533521226528368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>81.490421321702783</v>
+        <v>8.2904213217027731</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>95</v>
+        <v>19.002057656961469</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>95</v>
+        <v>39.149096060737016</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>95</v>
+        <v>33.288998616040786</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>95</v>
+        <v>34.547416100203939</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>95</v>
+        <v>70.095373996411297</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>95</v>
+        <v>71.130746159185861</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>95</v>
+        <v>73.512461308081512</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>95</v>
+        <v>79.889620742797561</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>95</v>
+        <v>92.478497116387913</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>95</v>
+        <v>77.532718191859502</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>95</v>
+        <v>74.850244703190981</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>95</v>
+        <v>63.781702885579264</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>95</v>
+        <v>56.307300463194586</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>95</v>
+        <v>55.790351272243043</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>95</v>
+        <v>41.939451885644949</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>95</v>
+        <v>24.510714735945179</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>95</v>
+        <v>3.4634611471923726</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>95</v>
+        <v>43.973921542481563</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>95</v>
+        <v>17.865272883167545</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>67.726934512047109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>7.3890600647011526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -1290,92 +1290,92 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>67.460214502757012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>95</v>
+        <v>47.648875260311002</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>95</v>
+        <v>55.564902937311444</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>95</v>
+        <v>64.261822318415398</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>95</v>
+        <v>51.509520503988135</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>95</v>
+        <v>23.343788992067278</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>47.397987801949768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>59.468651346575463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>27.584194419788417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>7.664768077991126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -1525,72 +1525,72 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>24.962141567672056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>72.33554679484655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>95</v>
+        <v>26.39682578922784</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>95</v>
+        <v>58.473799459077171</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>95</v>
+        <v>62.184103515343594</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>95</v>
+        <v>69.218073982877286</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>95</v>
+        <v>47.572394434912461</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>95</v>
+        <v>12.86659986989909</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>95</v>
+        <v>55.868818133794328</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>95</v>
+        <v>24.742378401505349</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>77.305846245192143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>38.746844180167862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>9.8918189240045571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -2110,42 +2110,42 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>33.915435806991425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>75.55498062730662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>83.785825387573965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>38.956062516098925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
@@ -2305,82 +2305,82 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>15.096171191820245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>76.536471471668136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>83.958652364299951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>95</v>
+        <v>16.057340396691025</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>95</v>
+        <v>41.02478565739321</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>95</v>
+        <v>57.587489293805447</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>95</v>
+        <v>57.941869044938009</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>95</v>
+        <v>52.373125274168522</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>95</v>
+        <v>47.830301469146654</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>95</v>
+        <v>38.637593892555891</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>95</v>
+        <v>41.526329478593688</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>95</v>
+        <v>11.860718958839177</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>70.38422422976339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
@@ -2495,127 +2495,127 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>1.6462511951382111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>84.446548233378266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>95</v>
+        <v>5.817379820390868</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>95</v>
+        <v>27.230650384408811</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>95</v>
+        <v>23.438781690263816</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>95</v>
+        <v>24.368471052551186</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>95</v>
+        <v>27.774996616503543</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>95</v>
+        <v>27.086602227432067</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>95</v>
+        <v>62.14085604641717</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>95</v>
+        <v>51.066198216133373</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>95</v>
+        <v>46.318209759313341</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>95</v>
+        <v>45.376117317826008</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>95</v>
+        <v>40.360530532234918</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>95</v>
+        <v>24.322955385871399</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>95</v>
+        <v>25.343652342470936</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>95</v>
+        <v>37.197779553203816</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>95</v>
+        <v>33.086945379453638</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>95</v>
+        <v>33.600924240241397</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>95</v>
+        <v>28.723029850821547</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>95</v>
+        <v>55.479883168425772</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>95</v>
+        <v>32.044697980031906</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>95</v>
+        <v>9.2511591569015188</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>86.959057437023588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>63.465857647069647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>43.39521669249531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -2730,22 +2730,22 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>95</v>
+        <v>65.267882651613405</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>95</v>
+        <v>92.728320901712692</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -2765,82 +2765,82 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>95</v>
+        <v>93.958689473615308</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>95</v>
+        <v>65.695193688796863</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>95</v>
+        <v>63.072810222961486</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>95</v>
+        <v>61.722708554352067</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>95</v>
+        <v>56.734064605135018</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>95</v>
+        <v>37.257487131799195</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>95</v>
+        <v>55.062742559998469</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>95</v>
+        <v>41.5216319057959</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>95</v>
+        <v>21.170738379904602</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>86.309806588015348</v>
+        <v>7.6188974971062642</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>73.123253069001464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>37.919977151397838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>28.924605546834425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>22.607300057191988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>10.931355185139562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>15.239795838417511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
@@ -2975,57 +2975,57 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>31.333766093436775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>33.140606377126645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>53.391994538381923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>48.729925170157088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>31.977465259132192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>95</v>
+        <v>17.726524974569195</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>85.776714395794869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>49.381342145704274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>25.729066908095561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1.5751385849036854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
@@ -3220,12 +3220,12 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>26.206488672927215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>17.316435006308513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -3335,12 +3335,12 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>5.9780307396104195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>19.593005712651593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -3540,52 +3540,52 @@
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>1.5975284907214287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>57.645254279161016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>16.849910282772925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
@@ -3725,42 +3725,42 @@
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>20.119220988155558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>46.925366290771073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>69.115049191671858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>95</v>
+        <v>58.070092715190867</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>95</v>
+        <v>87.825385085378016</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
@@ -3810,17 +3810,17 @@
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>95</v>
+        <v>35.52320571003218</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>75.134585881870038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
@@ -3935,32 +3935,32 @@
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>59.126187552662415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>95</v>
+        <v>1.1455403880324824</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>95</v>
+        <v>47.036946962056838</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>95</v>
+        <v>69.507758138946002</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>95</v>
+        <v>89.841736574067994</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>95</v>
+        <v>92.84989292871073</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
@@ -4045,17 +4045,17 @@
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>95</v>
+        <v>60.457448446675713</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>95</v>
+        <v>6.6807677684183302</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>77.862622145409006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
@@ -4165,137 +4165,137 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>40.835245718239939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>95</v>
+        <v>7.8153360248501151</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>95</v>
+        <v>64.883167323719789</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>95</v>
+        <v>82.070601945837907</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>95</v>
+        <v>85.633017685863081</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>95</v>
+        <v>72.384174241332829</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>95</v>
+        <v>68.125456935731023</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>95</v>
+        <v>50.38766540931573</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>95</v>
+        <v>60.470905969360736</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>95</v>
+        <v>57.512811718248635</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>95</v>
+        <v>74.27684711616962</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>95</v>
+        <v>88.653368603618361</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>95</v>
+        <v>91.254637264851652</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>95</v>
+        <v>76.737180186756405</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>95</v>
+        <v>90.259380410164908</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>95</v>
+        <v>79.748827869702296</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>95</v>
+        <v>63.076365152672807</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>95</v>
+        <v>52.877270193578795</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>63.498862734112002</v>
+        <v>26.52613546138473</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>49.039119972590285</v>
+        <v>9.7573017907720985</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>56.644229287425809</v>
+        <v>18.044229287425814</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>71.856346526157836</v>
+        <v>29.192710162521472</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>80.242198921609599</v>
+        <v>30.333108012518693</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>64.452026514949821</v>
+        <v>11.942935605858905</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>54.309144982179305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>9.260779268271504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
@@ -4415,57 +4415,57 @@
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>9.2918860482071644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>20.687506384985102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>65.977443593840761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>57.519586187476222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>95</v>
+        <v>57.675967843686834</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>95</v>
+        <v>30.514419643052037</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>95</v>
+        <v>19.106746473523607</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>50.672233063963347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>34.906637637652018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>3.4181830225994756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>2.31066995504974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>7.318472555100529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
@@ -4775,17 +4775,17 @@
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>36.618931972076375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>62.985544066220498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>15.477828384697023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
@@ -4965,27 +4965,27 @@
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>32.596982079198987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>67.616247421437691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>95</v>
+        <v>16.074955377513518</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>95</v>
+        <v>50.726964243454709</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>95</v>
+        <v>87.801773410775581</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
@@ -5010,17 +5010,17 @@
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>95</v>
+        <v>94.188625563160784</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>95</v>
+        <v>33.090773205327935</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>51.45288470354015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
@@ -5145,27 +5145,27 @@
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
-        <v>16.796186144691408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>46.835115071620997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>80.159214352136757</v>
+        <v>19.004668897591298</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>95</v>
+        <v>47.332586453790135</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>95</v>
+        <v>70.44953449638291</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
@@ -5255,17 +5255,17 @@
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>95</v>
+        <v>80.08640276401286</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
-        <v>95</v>
+        <v>13.446211281177419</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
-        <v>34.449485817692782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
@@ -5375,17 +5375,17 @@
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
-        <v>9.6560436885786256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>95</v>
+        <v>7.8431558962336387</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
-        <v>95</v>
+        <v>69.857201772078952</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
@@ -5440,57 +5440,57 @@
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
-        <v>95</v>
+        <v>88.086845033962419</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
-        <v>95</v>
+        <v>63.686135115518226</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
-        <v>95</v>
+        <v>65.479549646649474</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
-        <v>95</v>
+        <v>40.014206544996028</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
-        <v>95</v>
+        <v>74.646368815699489</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
-        <v>95</v>
+        <v>49.612953882642564</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
-        <v>95</v>
+        <v>27.578233438946587</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
-        <v>95</v>
+        <v>14.80357465735977</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
-        <v>47.323798809090775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
-        <v>11.164585280425754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
@@ -5620,77 +5620,77 @@
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
-        <v>51.883573779867511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
-        <v>87.354682111998628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
-        <v>95</v>
+        <v>37.768845439378943</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <v>95</v>
+        <v>31.81911927176855</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <v>95</v>
+        <v>11.132588529669489</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
-        <v>78.706630452340704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
-        <v>85.602247787629963</v>
+        <v>1.6477023330845029</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
-        <v>79.231410903685102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <v>68.024156050378664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
-        <v>95</v>
+        <v>37.356382316601774</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <v>95</v>
+        <v>22.310923293227543</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
-        <v>95</v>
+        <v>9.963279162269215</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
-        <v>91.777257719616671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
-        <v>73.750337375403262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
-        <v>42.457506901916439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
@@ -5865,17 +5865,17 @@
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
-        <v>0.9502698672818124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
-        <v>39.965392255145758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
-        <v>19.465175332553901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
@@ -6190,42 +6190,42 @@
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
-        <v>42.776806404430765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
-        <v>54.206073966773147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
-        <v>73.822089012464303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
-        <v>58.24856959961231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
@@ -6390,32 +6390,32 @@
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
-        <v>45.699202132308564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
-        <v>91.458149526919513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208" s="1">
-        <v>95</v>
+        <v>17.843517715455413</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
-        <v>95</v>
+        <v>64.350574176195721</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
-        <v>95</v>
+        <v>88.135452941362075</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
@@ -6455,22 +6455,22 @@
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
-        <v>95</v>
+        <v>47.842121678344732</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
-        <v>36.573423465014187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
@@ -6585,42 +6585,42 @@
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244" s="1">
-        <v>50.968848421544301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245" s="1">
-        <v>86.864953253177191</v>
+        <v>3.9649532531771912</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
-        <v>95</v>
+        <v>8.5177976276233238</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
-        <v>95</v>
+        <v>21.998847433420732</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248" s="1">
-        <v>95</v>
+        <v>35.079073838805812</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249" s="1">
-        <v>95</v>
+        <v>43.622410533806544</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
-        <v>95</v>
+        <v>68.431564179639281</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251" s="1">
-        <v>95</v>
+        <v>90.706697372692716</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
@@ -6695,12 +6695,12 @@
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <v>95</v>
+        <v>53.11625828349311</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
-        <v>49.935085124046743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
@@ -6815,127 +6815,127 @@
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1">
-        <v>59.918976066674524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1">
-        <v>95</v>
+        <v>28.08058407879393</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
-        <v>95</v>
+        <v>64.96146721501141</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
-        <v>95</v>
+        <v>75.829641635112665</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295" s="1">
-        <v>95</v>
+        <v>79.005114981884176</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296" s="1">
-        <v>95</v>
+        <v>83.890388250754228</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
-        <v>95</v>
+        <v>71.356920014145174</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298" s="1">
-        <v>95</v>
+        <v>81.953992674388417</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
-        <v>95</v>
+        <v>72.635928736252737</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300" s="1">
-        <v>95</v>
+        <v>77.008908763422951</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301" s="1">
-        <v>95</v>
+        <v>70.035173357410784</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
-        <v>95</v>
+        <v>81.886583778946658</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303" s="1">
-        <v>95</v>
+        <v>58.618952465438745</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304" s="1">
-        <v>95</v>
+        <v>66.599628242633429</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
-        <v>95</v>
+        <v>72.828473266709153</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <v>95</v>
+        <v>67.459523832699659</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
-        <v>95</v>
+        <v>56.099262760469969</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1">
-        <v>95</v>
+        <v>23.919840863636487</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309" s="1">
-        <v>95</v>
+        <v>9.9348256799043977</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" s="1">
-        <v>94.309512041849615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312" s="1">
-        <v>77.708627743173849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313" s="1">
-        <v>13.385075901502816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314" s="1">
-        <v>5.1955010956039009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
@@ -7045,132 +7045,132 @@
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" s="1">
-        <v>10.703984940166613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1337" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" s="1">
-        <v>95</v>
+        <v>21.689810109450711</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
-        <v>95</v>
+        <v>53.741387278496909</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
-        <v>95</v>
+        <v>54.519144788351248</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343" s="1">
-        <v>95</v>
+        <v>74.300234424870439</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344" s="1">
-        <v>95</v>
+        <v>57.401327640327729</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
-        <v>95</v>
+        <v>62.312429437728348</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1346" s="1">
-        <v>95</v>
+        <v>63.604049717750918</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
-        <v>95</v>
+        <v>57.338886555081913</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
-        <v>95</v>
+        <v>65.672829260915094</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <v>95</v>
+        <v>51.915943082583262</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" s="1">
-        <v>95</v>
+        <v>49.234758320848762</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351" s="1">
-        <v>92.131175579111328</v>
+        <v>32.776630124565862</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352" s="1">
-        <v>59.985601427674872</v>
+        <v>31.021965064038504</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353" s="1">
-        <v>53.214076330285678</v>
+        <v>17.486803603012941</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354" s="1">
-        <v>39.790127169011463</v>
+        <v>11.599218078102371</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1355" s="1">
-        <v>54.310444097003632</v>
+        <v>18.783171369730901</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1356" s="1">
-        <v>63.425023298007879</v>
+        <v>20.070477843462424</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" s="1">
-        <v>61.940783873088222</v>
+        <v>15.113511145815492</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358" s="1">
-        <v>58.68247521290543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1359" s="1">
-        <v>64.279917711558483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="1">
-        <v>39.159144298217818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" s="1">
-        <v>5.5856887269357527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
@@ -7290,17 +7290,17 @@
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1385" s="1">
-        <v>7.358390689054449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1386" s="1">
-        <v>71.124790441513511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1387" s="1">
-        <v>95</v>
+        <v>47.76901983383754</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
@@ -7325,27 +7325,27 @@
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392" s="1">
-        <v>95</v>
+        <v>83.539592419658305</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1393" s="1">
-        <v>95</v>
+        <v>40.024703289195088</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1394" s="1">
-        <v>92.849370069372569</v>
+        <v>17.51300643300894</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
-        <v>42.65385172863926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1396" s="1">
-        <v>20.107741514499384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
@@ -7550,17 +7550,17 @@
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437" s="1">
-        <v>4.0963384833571004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1438" s="1">
-        <v>4.5963234829208233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1439" s="1">
-        <v>15.191870252965584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
@@ -7580,12 +7580,12 @@
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
-        <v>6.0864103071245896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
-        <v>21.996242043517338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
@@ -7595,47 +7595,47 @@
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
-        <v>15.287906888693348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447" s="1">
-        <v>6.7419165030722903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1448" s="1">
-        <v>20.103325144142367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" s="1">
-        <v>55.526948349897609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
-        <v>95</v>
+        <v>5.5727886538620046</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
-        <v>95</v>
+        <v>17.57900755846007</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
-        <v>95</v>
+        <v>46.687355000382958</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" s="1">
-        <v>95</v>
+        <v>64.321001183336108</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454" s="1">
-        <v>95</v>
+        <v>89.361332365246511</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
@@ -7660,27 +7660,27 @@
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459" s="1">
-        <v>95</v>
+        <v>78.343678203900964</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460" s="1">
-        <v>95</v>
+        <v>26.775341913628743</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1461" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" s="1">
-        <v>44.381135860507385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
@@ -7770,42 +7770,42 @@
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
-        <v>12.325947766519395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
-        <v>38.937095751597425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
-        <v>68.336164753069482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
-        <v>73.642132671628929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
-        <v>57.725871706650182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
-        <v>59.571877916391749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
-        <v>36.70057547319562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
-        <v>7.5439817967893923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
@@ -7815,32 +7815,32 @@
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
-        <v>27.831437309778646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
-        <v>81.773757107614514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
-        <v>95</v>
+        <v>17.055883166794974</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
-        <v>95</v>
+        <v>45.47953019589832</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1495" s="1">
-        <v>95</v>
+        <v>74.251323705160445</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
@@ -7895,27 +7895,27 @@
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
-        <v>95</v>
+        <v>79.654908310220463</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
-        <v>95</v>
+        <v>19.043548902271787</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
-        <v>85.902739753824108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
-        <v>11.122914014803063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
@@ -8020,122 +8020,122 @@
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531" s="1">
-        <v>30.115811296948742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532" s="1">
-        <v>93.086251817265008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1534" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538" s="1">
-        <v>95</v>
+        <v>0.11126787284085203</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="1">
-        <v>95</v>
+        <v>1.5398709023913233</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
-        <v>95</v>
+        <v>26.288628769774281</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
-        <v>95</v>
+        <v>43.543637597272635</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
-        <v>95</v>
+        <v>47.251445786229219</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
-        <v>95</v>
+        <v>46.941510463119613</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
-        <v>95</v>
+        <v>66.813444396613093</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
-        <v>95</v>
+        <v>69.990084198989436</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
-        <v>95</v>
+        <v>69.102503206358648</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
-        <v>95</v>
+        <v>80.263658703970833</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
-        <v>95</v>
+        <v>80.371952025240248</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1549" s="1">
-        <v>95</v>
+        <v>71.409538396980508</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1550" s="1">
-        <v>95</v>
+        <v>64.875598023538672</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" s="1">
-        <v>95</v>
+        <v>52.305407117303339</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
-        <v>95</v>
+        <v>5.89198306116465</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
-        <v>70.088935401311772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
-        <v>8.5528505719310992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
@@ -8250,127 +8250,127 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
-        <v>74.780744030857463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
-        <v>95</v>
+        <v>41.55932022283055</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" s="1">
-        <v>95</v>
+        <v>38.763338615953515</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1582" s="1">
-        <v>95</v>
+        <v>43.195420710490637</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1583" s="1">
-        <v>95</v>
+        <v>23.656344113924916</v>
       </c>
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1584" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1585" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
-        <v>79.087281036565685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1594" s="1">
-        <v>79.636141471412159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595" s="1">
-        <v>32.962266932222917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1596" s="1">
-        <v>70.32923397454725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1597" s="1">
-        <v>41.48863483093411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1598" s="1">
-        <v>23.954528575710139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599" s="1">
-        <v>21.339658226051405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1600" s="1">
-        <v>1.8307040334453466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1601" s="1">
-        <v>20.771641618218581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602" spans="1:1" x14ac:dyDescent="0.25">
@@ -8475,27 +8475,27 @@
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
-        <v>23.264492279079441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
-        <v>95</v>
+        <v>55.963741797749833</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
@@ -8520,52 +8520,52 @@
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
-        <v>95</v>
+        <v>83.70577508262285</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
-        <v>95</v>
+        <v>79.608766966597202</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
-        <v>95</v>
+        <v>60.178880883956253</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
-        <v>95</v>
+        <v>65.166400796131995</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
-        <v>95</v>
+        <v>45.099000165136005</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
-        <v>95</v>
+        <v>49.319027936052208</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
-        <v>95</v>
+        <v>26.144203293068212</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
-        <v>92.725982462964893</v>
+        <v>18.689618826601262</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
-        <v>30.217574434924661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1640" s="1">
-        <v>12.016986514310023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
@@ -8740,22 +8740,22 @@
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
-        <v>78.461860792043822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
-        <v>57.580502602017845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
@@ -8845,27 +8845,27 @@
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1696" s="1">
-        <v>6.9363550340777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1697" s="1">
-        <v>6.8157445428624426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" s="1">
-        <v>11.66025709607994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
-        <v>9.6395816081408405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
-        <v>12.333255234745016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
@@ -8980,87 +8980,87 @@
     </row>
     <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1723" s="1">
-        <v>2.2360789652764486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
-        <v>51.674818064340755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
-        <v>78.266646019779188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <v>95</v>
+        <v>2.943197004631855</v>
       </c>
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <v>75.022237442505826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <v>52.572895400264194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <v>13.985284317576141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <v>25.338936751610081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
-        <v>38.015486676226864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
-        <v>46.606606944536495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1737" s="1">
-        <v>95</v>
+        <v>31.618922845936702</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1738" s="1">
-        <v>95</v>
+        <v>70.295050356296116</v>
       </c>
     </row>
     <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1739" s="1">
-        <v>95</v>
+        <v>94.572660511633558</v>
       </c>
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
@@ -9120,52 +9120,52 @@
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1751" s="1">
-        <v>95</v>
+        <v>87.522879456381617</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1752" s="1">
-        <v>95</v>
+        <v>15.90417848384735</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1756" s="1">
-        <v>62.951691920197007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1758" s="1">
-        <v>82.439443071651695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759" s="1">
-        <v>59.631305895534567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1760" s="1">
-        <v>23.855416586379295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
@@ -9255,37 +9255,37 @@
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
-        <v>32.143276574342515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
-        <v>61.053808235400474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
-        <v>95</v>
+        <v>4.6971744819530858</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1782" s="1">
-        <v>95</v>
+        <v>36.308716381054069</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1783" s="1">
-        <v>95</v>
+        <v>44.728492416780611</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" s="1">
-        <v>95</v>
+        <v>88.638482405844172</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
@@ -9330,22 +9330,22 @@
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1793" s="1">
-        <v>95</v>
+        <v>66.146002973399746</v>
       </c>
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1794" s="1">
-        <v>95</v>
+        <v>8.9238106853033798</v>
       </c>
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1795" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1796" s="1">
-        <v>56.517544472486357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
@@ -9455,17 +9455,17 @@
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
-        <v>6.9126582142365303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
-        <v>95</v>
+        <v>2.361430913241946</v>
       </c>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" s="1">
-        <v>95</v>
+        <v>82.218563083270908</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
@@ -9575,17 +9575,17 @@
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" s="1">
-        <v>95</v>
+        <v>85.081377181263747</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843" s="1">
-        <v>95</v>
+        <v>4.1137244982602423</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1844" s="1">
-        <v>29.83668921603287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
@@ -9685,17 +9685,17 @@
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <v>29.813871462063339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866" s="1">
-        <v>95</v>
+        <v>69.072206541717463</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
@@ -9740,57 +9740,57 @@
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1875" s="1">
-        <v>95</v>
+        <v>86.489792610357185</v>
       </c>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1876" s="1">
-        <v>95</v>
+        <v>64.499521700082013</v>
       </c>
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1877" s="1">
-        <v>95</v>
+        <v>28.829910378242975</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1878" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1879" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1884" s="1">
-        <v>73.180412463287141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1885" s="1">
-        <v>24.714953625417003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
@@ -9930,72 +9930,72 @@
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1913" s="1">
-        <v>0.15768206484960751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="1">
-        <v>65.969486810912699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1923" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1924" s="1">
-        <v>73.584204221607934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" s="1">
-        <v>31.807156094452861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1926" s="1">
-        <v>0.59790114503089586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
@@ -10025,7 +10025,7 @@
     </row>
     <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1932" s="1">
-        <v>4.2440007538397611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
@@ -10165,17 +10165,17 @@
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" s="1">
-        <v>43.911645503442479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1962" s="1">
-        <v>95</v>
+        <v>48.57313220084432</v>
       </c>
     </row>
     <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
@@ -10210,72 +10210,72 @@
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" s="1">
-        <v>95</v>
+        <v>85.235974479705575</v>
       </c>
     </row>
     <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1970" s="1">
-        <v>95</v>
+        <v>79.533908582293179</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971" s="1">
-        <v>95</v>
+        <v>69.408964930439936</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1972" s="1">
-        <v>95</v>
+        <v>90.947604594121316</v>
       </c>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" s="1">
-        <v>95</v>
+        <v>78.218265390160596</v>
       </c>
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974" s="1">
-        <v>95</v>
+        <v>87.409125595980811</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1975" s="1">
-        <v>95</v>
+        <v>71.244532535679255</v>
       </c>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1976" s="1">
-        <v>95</v>
+        <v>67.501438757628037</v>
       </c>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" s="1">
-        <v>95</v>
+        <v>66.147724623093268</v>
       </c>
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978" s="1">
-        <v>95</v>
+        <v>63.211216232370482</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1979" s="1">
-        <v>95</v>
+        <v>71.48834260760438</v>
       </c>
     </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1980" s="1">
-        <v>95</v>
+        <v>63.312616300840439</v>
       </c>
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" s="1">
-        <v>95</v>
+        <v>53.593019359816864</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982" s="1">
-        <v>95</v>
+        <v>74.274924455065999</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
@@ -10300,47 +10300,47 @@
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987" s="1">
-        <v>95</v>
+        <v>54.937366674443531</v>
       </c>
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988" s="1">
-        <v>95</v>
+        <v>38.898448528241467</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1989" s="1">
-        <v>95</v>
+        <v>2.0310637871927444</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1990" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1991" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1992" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="1">
-        <v>43.723565750869156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
@@ -10400,22 +10400,22 @@
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" s="1">
-        <v>53.043294455868342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2008" s="1">
-        <v>94.94955970888833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2009" s="1">
-        <v>95</v>
+        <v>37.318569992534407</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2010" s="1">
-        <v>95</v>
+        <v>65.464742057515053</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
@@ -10430,57 +10430,57 @@
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2013" s="1">
-        <v>95</v>
+        <v>84.472097996970106</v>
       </c>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" s="1">
-        <v>95</v>
+        <v>72.147629697056999</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" s="1">
-        <v>95</v>
+        <v>33.626291295027755</v>
       </c>
     </row>
     <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2016" s="1">
-        <v>95</v>
+        <v>27.225792720462099</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2017" s="1">
-        <v>95</v>
+        <v>3.7604152750672832</v>
       </c>
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2018" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2019" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2020" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" s="1">
-        <v>95</v>
+        <v>8.1119735087223912</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" s="1">
-        <v>95</v>
+        <v>10.919329760748438</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" s="1">
-        <v>95</v>
+        <v>59.711838014279792</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
@@ -10545,22 +10545,22 @@
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" s="1">
-        <v>95</v>
+        <v>58.748624227769007</v>
       </c>
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2037" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2038" s="1">
-        <v>78.643818410054436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2039" s="1">
-        <v>2.3425504563527944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
@@ -10660,52 +10660,52 @@
     </row>
     <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2059" s="1">
-        <v>31.97547066953268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2060" s="1">
-        <v>76.104088209003834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2061" s="1">
-        <v>70.191017394220751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" s="1">
-        <v>65.723391152347531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="1">
-        <v>75.978400919257822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" s="1">
-        <v>82.725753538664975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2065" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2067" s="1">
-        <v>95</v>
+        <v>32.883126680568218</v>
       </c>
     </row>
     <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2068" s="1">
-        <v>95</v>
+        <v>67.532034379890689</v>
       </c>
     </row>
     <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
@@ -10780,22 +10780,22 @@
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2083" s="1">
-        <v>95</v>
+        <v>81.616760658387363</v>
       </c>
     </row>
     <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2084" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2085" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2086" s="1">
-        <v>36.272926249877543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
@@ -10890,17 +10890,17 @@
     </row>
     <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2105" s="1">
-        <v>83.673399641453827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2106" s="1">
-        <v>95</v>
+        <v>30.585882007521704</v>
       </c>
     </row>
     <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2107" s="1">
-        <v>95</v>
+        <v>89.398228436408715</v>
       </c>
     </row>
     <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
@@ -11015,17 +11015,17 @@
     </row>
     <row r="2130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2130" s="1">
-        <v>95</v>
+        <v>90.907355844961728</v>
       </c>
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2131" s="1">
-        <v>95</v>
+        <v>23.356677278325595</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2132" s="1">
-        <v>66.398991931480111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
@@ -11115,17 +11115,17 @@
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2150" s="1">
-        <v>3.1835398799262373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2151" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2152" s="1">
-        <v>95</v>
+        <v>29.66725120760703</v>
       </c>
     </row>
     <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
@@ -11235,37 +11235,37 @@
     </row>
     <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2174" s="1">
-        <v>95</v>
+        <v>87.888271548659148</v>
       </c>
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2175" s="1">
-        <v>95</v>
+        <v>86.228293995335662</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2176" s="1">
-        <v>95</v>
+        <v>69.936327932343914</v>
       </c>
     </row>
     <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2177" s="1">
-        <v>95</v>
+        <v>53.439280296468873</v>
       </c>
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2178" s="1">
-        <v>95</v>
+        <v>11.685174601536923</v>
       </c>
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2179" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2180" s="1">
-        <v>27.063170167776327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2181" spans="1:1" x14ac:dyDescent="0.25">
@@ -11355,17 +11355,17 @@
     </row>
     <row r="2198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2198" s="1">
-        <v>20.649529167811536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2199" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2200" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2201" spans="1:1" x14ac:dyDescent="0.25">
@@ -11480,37 +11480,37 @@
     </row>
     <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2223" s="1">
-        <v>95</v>
+        <v>94.051618982852744</v>
       </c>
     </row>
     <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2224" s="1">
-        <v>95</v>
+        <v>85.532128211716142</v>
       </c>
     </row>
     <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2225" s="1">
-        <v>95</v>
+        <v>55.580705145068464</v>
       </c>
     </row>
     <row r="2226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2226" s="1">
-        <v>95</v>
+        <v>4.9105218596630289</v>
       </c>
     </row>
     <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2227" s="1">
-        <v>55.177783308005758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2228" s="1">
-        <v>38.448641472261528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2229" s="1">
-        <v>26.253498629766657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
@@ -11555,17 +11555,17 @@
     </row>
     <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2238" s="1">
-        <v>48.25002997772706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2239" s="1">
-        <v>4.42216247429928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2240" s="1">
-        <v>14.67415088531232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
@@ -11590,7 +11590,7 @@
     </row>
     <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2245" s="1">
-        <v>1.4896713606170373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
@@ -11600,122 +11600,122 @@
     </row>
     <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2247" s="1">
-        <v>28.972164909890175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2248" s="1">
-        <v>84.2430809681602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2249" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2250" s="1">
-        <v>95</v>
+        <v>62.912013049381613</v>
       </c>
     </row>
     <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2251" s="1">
-        <v>95</v>
+        <v>86.56541007976314</v>
       </c>
     </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="1">
-        <v>95</v>
+        <v>87.227213952666006</v>
       </c>
     </row>
     <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2253" s="1">
-        <v>95</v>
+        <v>81.85016972054494</v>
       </c>
     </row>
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="1">
-        <v>95</v>
+        <v>87.284536166302118</v>
       </c>
     </row>
     <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2255" s="1">
-        <v>95</v>
+        <v>60.283534378506296</v>
       </c>
     </row>
     <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2256" s="1">
-        <v>95</v>
+        <v>48.252014162661048</v>
       </c>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2257" s="1">
-        <v>95</v>
+        <v>49.93386770747378</v>
       </c>
     </row>
     <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2258" s="1">
-        <v>95</v>
+        <v>48.528466094563136</v>
       </c>
     </row>
     <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2259" s="1">
-        <v>95</v>
+        <v>54.305611006617802</v>
       </c>
     </row>
     <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2260" s="1">
-        <v>95</v>
+        <v>74.29115301522063</v>
       </c>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="1">
-        <v>95</v>
+        <v>61.540902735015159</v>
       </c>
     </row>
     <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2262" s="1">
-        <v>95</v>
+        <v>71.787187392665231</v>
       </c>
     </row>
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="1">
-        <v>95</v>
+        <v>72.116667364005863</v>
       </c>
     </row>
     <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2264" s="1">
-        <v>95</v>
+        <v>71.495453182203192</v>
       </c>
     </row>
     <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2265" s="1">
-        <v>95</v>
+        <v>64.201644641706181</v>
       </c>
     </row>
     <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2266" s="1">
-        <v>95</v>
+        <v>61.322054545987911</v>
       </c>
     </row>
     <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2267" s="1">
-        <v>95</v>
+        <v>51.165162603778448</v>
       </c>
     </row>
     <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2268" s="1">
-        <v>95</v>
+        <v>51.295576250248807</v>
       </c>
     </row>
     <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2269" s="1">
-        <v>95</v>
+        <v>79.686794660126694</v>
       </c>
     </row>
     <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2270" s="1">
-        <v>95</v>
+        <v>94.360313741508989</v>
       </c>
     </row>
     <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
@@ -11755,27 +11755,27 @@
     </row>
     <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2278" s="1">
-        <v>95</v>
+        <v>74.504142939935377</v>
       </c>
     </row>
     <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2279" s="1">
-        <v>95</v>
+        <v>38.083580781076222</v>
       </c>
     </row>
     <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
@@ -11860,87 +11860,87 @@
     </row>
     <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2299" s="1">
-        <v>28.564102467551145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2300" s="1">
-        <v>41.080480063566057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2301" s="1">
-        <v>60.980084817506395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2302" s="1">
-        <v>61.47531091176436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2303" s="1">
-        <v>77.856985470594623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2304" s="1">
-        <v>52.525241756274767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2305" s="1">
-        <v>57.670865044215788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2306" s="1">
-        <v>57.019371556930345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2307" s="1">
-        <v>47.803969232411013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2308" s="1">
-        <v>51.92121290433839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2309" s="1">
-        <v>66.945860539540718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2310" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2311" s="1">
-        <v>95</v>
+        <v>1.1540969168248589</v>
       </c>
     </row>
     <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2312" s="1">
-        <v>95</v>
+        <v>9.8321749722988407</v>
       </c>
     </row>
     <row r="2313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2313" s="1">
-        <v>95</v>
+        <v>29.638817699422574</v>
       </c>
     </row>
     <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2314" s="1">
-        <v>95</v>
+        <v>53.999330265618561</v>
       </c>
     </row>
     <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2315" s="1">
-        <v>95</v>
+        <v>85.211076278694549</v>
       </c>
     </row>
     <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
@@ -11975,27 +11975,27 @@
     </row>
     <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2322" s="1">
-        <v>95</v>
+        <v>78.756518555099277</v>
       </c>
     </row>
     <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2323" s="1">
-        <v>95</v>
+        <v>5.6786998361091312</v>
       </c>
     </row>
     <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2324" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2325" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2326" s="1">
-        <v>38.293818783993046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
@@ -12095,17 +12095,17 @@
     </row>
     <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2346" s="1">
-        <v>28.298491942912818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2347" s="1">
-        <v>50.074924635346363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2348" s="1">
-        <v>51.046767123766159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
@@ -12130,97 +12130,97 @@
     </row>
     <row r="2353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2353" s="1">
-        <v>7.7574884415397314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2354" s="1">
-        <v>19.003938399997473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2355" s="1">
-        <v>33.23889167173364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2356" s="1">
-        <v>66.488620882452224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2357" s="1">
-        <v>84.064235915630391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2358" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2359" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2360" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2361" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2362" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2363" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2364" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2365" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2366" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2367" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2368" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2369" s="1">
-        <v>79.04287412831971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2370" s="1">
-        <v>82.651308622122102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2371" s="1">
-        <v>22.70452250223423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2372" spans="1:1" x14ac:dyDescent="0.25">
@@ -12580,127 +12580,127 @@
     </row>
     <row r="2443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2443" s="1">
-        <v>37.774182503612757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2444" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2445" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2446" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2447" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2448" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2449" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2450" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2451" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2452" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2453" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2454" s="1">
-        <v>95</v>
+        <v>16.693294751876454</v>
       </c>
     </row>
     <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2455" s="1">
-        <v>95</v>
+        <v>4.7701608200001919</v>
       </c>
     </row>
     <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2456" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2457" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2458" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2459" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2460" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2461" s="1">
-        <v>82.929782173160532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2463" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2464" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2465" s="1">
-        <v>78.873724712133566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2466" s="1">
-        <v>64.092421236476355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2467" s="1">
-        <v>19.556725134180887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
@@ -12795,77 +12795,77 @@
     </row>
     <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2486" s="1">
-        <v>18.600231458843254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2487" s="1">
-        <v>72.205065499470294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2488" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2489" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2490" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2491" s="1">
-        <v>95</v>
+        <v>24.45569873396504</v>
       </c>
     </row>
     <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2492" s="1">
-        <v>95</v>
+        <v>41.007246940078289</v>
       </c>
     </row>
     <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2493" s="1">
-        <v>95</v>
+        <v>25.065358316132929</v>
       </c>
     </row>
     <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2494" s="1">
-        <v>95</v>
+        <v>5.2471117046534843</v>
       </c>
     </row>
     <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2495" s="1">
-        <v>95</v>
+        <v>18.643862469403576</v>
       </c>
     </row>
     <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2496" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2497" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2498" s="1">
-        <v>68.313262475181034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2499" s="1">
-        <v>43.385043068804677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2500" s="1">
-        <v>41.197109669331965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
@@ -13060,12 +13060,12 @@
     </row>
     <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2539" s="1">
-        <v>7.493072727709313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2540" s="1">
-        <v>25.393867358209683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
@@ -13145,52 +13145,52 @@
     </row>
     <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2556" s="1">
-        <v>7.727803552712877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2557" s="1">
-        <v>45.370150286016944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2558" s="1">
-        <v>84.401688247062779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2559" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2560" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2562" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2563" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2564" s="1">
-        <v>55.205309102292496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2565" s="1">
-        <v>0.24863823931735338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
@@ -13350,22 +13350,22 @@
     </row>
     <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2597" s="1">
-        <v>35.512770556339504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2598" s="1">
-        <v>62.332790018642271</v>
+        <v>15.460062745914993</v>
       </c>
     </row>
     <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2599" s="1">
-        <v>95</v>
+        <v>35.864054879249821</v>
       </c>
     </row>
     <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2600" s="1">
-        <v>95</v>
+        <v>82.884826762861081</v>
       </c>
     </row>
     <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
@@ -13420,12 +13420,12 @@
     </row>
     <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2611" s="1">
-        <v>95</v>
+        <v>43.637188514056191</v>
       </c>
     </row>
     <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2612" s="1">
-        <v>37.56142705685447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2613" spans="1:1" x14ac:dyDescent="0.25">
@@ -13590,62 +13590,62 @@
     </row>
     <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2645" s="1">
-        <v>4.9707101941523275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2646" s="1">
-        <v>36.033812435063986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2647" s="1">
-        <v>62.888138716166495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2648" s="1">
-        <v>95</v>
+        <v>16.553044194603899</v>
       </c>
     </row>
     <row r="2649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2649" s="1">
-        <v>95</v>
+        <v>16.877279810234029</v>
       </c>
     </row>
     <row r="2650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2650" s="1">
-        <v>95</v>
+        <v>33.811838021074777</v>
       </c>
     </row>
     <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2651" s="1">
-        <v>95</v>
+        <v>23.428122196787889</v>
       </c>
     </row>
     <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2652" s="1">
-        <v>95</v>
+        <v>12.678126349395875</v>
       </c>
     </row>
     <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2653" s="1">
-        <v>88.46448399000171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2654" s="1">
-        <v>39.214655940588123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2655" s="1">
-        <v>53.225789611739295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2656" s="1">
-        <v>31.858771739888052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
@@ -13790,22 +13790,22 @@
     </row>
     <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2685" s="1">
-        <v>12.901215797658915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2686" s="1">
-        <v>66.868240167887407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2687" s="1">
-        <v>95</v>
+        <v>26.868937316786052</v>
       </c>
     </row>
     <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2688" s="1">
-        <v>95</v>
+        <v>60.467172663095411</v>
       </c>
     </row>
     <row r="2689" spans="1:1" x14ac:dyDescent="0.25">
@@ -13890,12 +13890,12 @@
     </row>
     <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2705" s="1">
-        <v>95</v>
+        <v>51.471357144611687</v>
       </c>
     </row>
     <row r="2706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2706" s="1">
-        <v>60.376191363820588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
@@ -14010,17 +14010,17 @@
     </row>
     <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2729" s="1">
-        <v>32.620535852992127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2730" s="1">
-        <v>95</v>
+        <v>46.591139168664071</v>
       </c>
     </row>
     <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2731" s="1">
-        <v>95</v>
+        <v>89.566092891164899</v>
       </c>
     </row>
     <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
@@ -14035,32 +14035,32 @@
     </row>
     <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2734" s="1">
-        <v>95</v>
+        <v>60.39495384256044</v>
       </c>
     </row>
     <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2735" s="1">
-        <v>95</v>
+        <v>30.028656959306371</v>
       </c>
     </row>
     <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2737" s="1">
-        <v>64.658237516299849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2738" s="1">
-        <v>15.951478290218121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2739" s="1">
-        <v>19.631048021254717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
@@ -14070,12 +14070,12 @@
     </row>
     <row r="2741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2741" s="1">
-        <v>27.124913244128585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2742" s="1">
-        <v>18.881499437516506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
@@ -14250,57 +14250,57 @@
     </row>
     <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2777" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2778" s="1">
-        <v>95</v>
+        <v>8.7734940100859617</v>
       </c>
     </row>
     <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2779" s="1">
-        <v>95</v>
+        <v>36.677929031717298</v>
       </c>
     </row>
     <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2780" s="1">
-        <v>95</v>
+        <v>53.807835414487279</v>
       </c>
     </row>
     <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2781" s="1">
-        <v>95</v>
+        <v>26.154561444294501</v>
       </c>
     </row>
     <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2782" s="1">
-        <v>95</v>
+        <v>63.756204386183448</v>
       </c>
     </row>
     <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2783" s="1">
-        <v>95</v>
+        <v>36.791439377843652</v>
       </c>
     </row>
     <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2784" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2785" s="1">
-        <v>70.921100577524186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2786" s="1">
-        <v>24.566234238245091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2787" s="1">
-        <v>8.337455037550022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2788" spans="1:1" x14ac:dyDescent="0.25">
@@ -14500,7 +14500,7 @@
     </row>
     <row r="2827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2827" s="1">
-        <v>16.335332973545373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
@@ -14590,47 +14590,47 @@
     </row>
     <row r="2845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2845" s="1">
-        <v>42.259742416674449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2846" s="1">
-        <v>77.361446968393196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2847" s="1">
-        <v>89.451597175927589</v>
+        <v>0.56977899410941812</v>
       </c>
     </row>
     <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2848" s="1">
-        <v>95</v>
+        <v>25.786753234910513</v>
       </c>
     </row>
     <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2849" s="1">
-        <v>95</v>
+        <v>18.390558700702357</v>
       </c>
     </row>
     <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2850" s="1">
-        <v>95</v>
+        <v>47.534473318079556</v>
       </c>
     </row>
     <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2851" s="1">
-        <v>95</v>
+        <v>14.187109923041019</v>
       </c>
     </row>
     <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2852" s="1">
-        <v>90.026646231104351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2853" s="1">
-        <v>45.041249388384223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
@@ -14740,87 +14740,87 @@
     </row>
     <row r="2875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2875" s="1">
-        <v>46.464563604729427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2876" s="1">
-        <v>59.981982692492195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2877" s="1">
-        <v>32.637823560486027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2878" s="1">
-        <v>37.546951617963565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2879" s="1">
-        <v>49.049543205477953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2880" s="1">
-        <v>23.01327544178217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2881" s="1">
-        <v>37.170805516423322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2882" s="1">
-        <v>43.97392917456569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2883" s="1">
-        <v>32.370457032008012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2884" s="1">
-        <v>66.829708389411309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2885" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2886" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2887" s="1">
-        <v>95</v>
+        <v>3.2963681574316728</v>
       </c>
     </row>
     <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2888" s="1">
-        <v>95</v>
+        <v>26.000716699876534</v>
       </c>
     </row>
     <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2889" s="1">
-        <v>95</v>
+        <v>40.211496384343214</v>
       </c>
     </row>
     <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2890" s="1">
-        <v>95</v>
+        <v>83.264782235419915</v>
       </c>
     </row>
     <row r="2891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2891" s="1">
-        <v>95</v>
+        <v>94.232960189782318</v>
       </c>
     </row>
     <row r="2892" spans="1:1" x14ac:dyDescent="0.25">
@@ -14855,37 +14855,37 @@
     </row>
     <row r="2898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2898" s="1">
-        <v>95</v>
+        <v>84.441836338372426</v>
       </c>
     </row>
     <row r="2899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2899" s="1">
-        <v>95</v>
+        <v>65.780064106915546</v>
       </c>
     </row>
     <row r="2900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2900" s="1">
-        <v>95</v>
+        <v>8.5997846568261433</v>
       </c>
     </row>
     <row r="2901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2901" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2902" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2903" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2904" s="1">
-        <v>49.581373688622207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
@@ -14990,117 +14990,117 @@
     </row>
     <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2925" s="1">
-        <v>8.1014302366701063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2926" s="1">
-        <v>36.669899840182765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2927" s="1">
-        <v>60.223438608783063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2928" s="1">
-        <v>61.027687915023996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2929" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2930" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2931" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2932" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2933" s="1">
-        <v>95</v>
+        <v>18.642443621827642</v>
       </c>
     </row>
     <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2934" s="1">
-        <v>95</v>
+        <v>51.864190157950439</v>
       </c>
     </row>
     <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2935" s="1">
-        <v>95</v>
+        <v>67.738045654089746</v>
       </c>
     </row>
     <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2936" s="1">
-        <v>95</v>
+        <v>74.917294814662512</v>
       </c>
     </row>
     <row r="2937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2937" s="1">
-        <v>95</v>
+        <v>67.814027054483006</v>
       </c>
     </row>
     <row r="2938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2938" s="1">
-        <v>95</v>
+        <v>89.751170606514023</v>
       </c>
     </row>
     <row r="2939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2939" s="1">
-        <v>95</v>
+        <v>74.55383223541908</v>
       </c>
     </row>
     <row r="2940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2940" s="1">
-        <v>95</v>
+        <v>65.02305041935395</v>
       </c>
     </row>
     <row r="2941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2941" s="1">
-        <v>95</v>
+        <v>71.2019035745232</v>
       </c>
     </row>
     <row r="2942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2942" s="1">
-        <v>95</v>
+        <v>59.408592694661387</v>
       </c>
     </row>
     <row r="2943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2943" s="1">
-        <v>95</v>
+        <v>58.189304990004388</v>
       </c>
     </row>
     <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2944" s="1">
-        <v>95</v>
+        <v>41.126255175662287</v>
       </c>
     </row>
     <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2945" s="1">
-        <v>95</v>
+        <v>26.854582652196058</v>
       </c>
     </row>
     <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2946" s="1">
-        <v>95</v>
+        <v>18.929258261867968</v>
       </c>
     </row>
     <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2947" s="1">
-        <v>79.74811771852842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
@@ -15210,92 +15210,92 @@
     </row>
     <row r="2969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2969" s="1">
-        <v>21.819102893216787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2970" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2971" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2972" s="1">
-        <v>95</v>
+        <v>10.721990913152711</v>
       </c>
     </row>
     <row r="2973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2973" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2974" s="1">
-        <v>95</v>
+        <v>16.056455187482179</v>
       </c>
     </row>
     <row r="2975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2975" s="1">
-        <v>95</v>
+        <v>27.065864160310841</v>
       </c>
     </row>
     <row r="2976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2976" s="1">
-        <v>95</v>
+        <v>42.421330707303603</v>
       </c>
     </row>
     <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2977" s="1">
-        <v>95</v>
+        <v>9.6134748342783496</v>
       </c>
     </row>
     <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2978" s="1">
-        <v>95</v>
+        <v>23.013123546916326</v>
       </c>
     </row>
     <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2979" s="1">
-        <v>95</v>
+        <v>28.726086395590773</v>
       </c>
     </row>
     <row r="2980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2980" s="1">
-        <v>95</v>
+        <v>49.958903662909357</v>
       </c>
     </row>
     <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2981" s="1">
-        <v>95</v>
+        <v>46.653455242487873</v>
       </c>
     </row>
     <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2982" s="1">
-        <v>95</v>
+        <v>51.827924493916441</v>
       </c>
     </row>
     <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2983" s="1">
-        <v>95</v>
+        <v>53.239534028970304</v>
       </c>
     </row>
     <row r="2984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2984" s="1">
-        <v>95</v>
+        <v>67.812033527455213</v>
       </c>
     </row>
     <row r="2985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2985" s="1">
-        <v>95</v>
+        <v>62.66860553793299</v>
       </c>
     </row>
     <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2986" s="1">
-        <v>95</v>
+        <v>50.447876260809934</v>
       </c>
     </row>
     <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
@@ -15310,32 +15310,32 @@
     </row>
     <row r="2989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2989" s="1">
-        <v>95</v>
+        <v>65.437558389838529</v>
       </c>
     </row>
     <row r="2990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2990" s="1">
-        <v>95</v>
+        <v>41.69781654360623</v>
       </c>
     </row>
     <row r="2991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2991" s="1">
-        <v>95</v>
+        <v>19.296714574461475</v>
       </c>
     </row>
     <row r="2992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2992" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2994" s="1">
-        <v>63.836022435575146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
@@ -15445,132 +15445,132 @@
     </row>
     <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3016" s="1">
-        <v>94.71587913059426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3017" s="1">
-        <v>95</v>
+        <v>6.7795881302580796E-2</v>
       </c>
     </row>
     <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3018" s="1">
-        <v>95</v>
+        <v>55.166830165944056</v>
       </c>
     </row>
     <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3019" s="1">
-        <v>95</v>
+        <v>77.336616197997785</v>
       </c>
     </row>
     <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3020" s="1">
-        <v>95</v>
+        <v>54.332750989733093</v>
       </c>
     </row>
     <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3021" s="1">
-        <v>95</v>
+        <v>25.459270359470761</v>
       </c>
     </row>
     <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3022" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3024" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3025" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3026" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3027" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3028" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3029" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3030" s="1">
-        <v>91.611709953591486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3031" s="1">
-        <v>94.822700557247956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3032" s="1">
-        <v>77.046402733053014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3033" s="1">
-        <v>70.415450385711736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3034" s="1">
-        <v>56.037871230964598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3035" s="1">
-        <v>50.660203411369551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3036" s="1">
-        <v>60.364851683944899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3037" s="1">
-        <v>73.423981136950218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3038" s="1">
-        <v>68.496600322957192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3039" s="1">
-        <v>48.887939992342957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3040" s="1">
-        <v>36.262426150424041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3041" s="1">
-        <v>14.629217969721687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
@@ -15675,57 +15675,57 @@
     </row>
     <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3062" s="1">
-        <v>6.3993420435155208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3063" s="1">
-        <v>29.628627217281561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3064" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3065" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3066" s="1">
-        <v>95</v>
+        <v>42.484013961834137</v>
       </c>
     </row>
     <row r="3067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3067" s="1">
-        <v>95</v>
+        <v>59.600601880350766</v>
       </c>
     </row>
     <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3068" s="1">
-        <v>95</v>
+        <v>31.940659967343805</v>
       </c>
     </row>
     <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3069" s="1">
-        <v>95</v>
+        <v>21.868133139491739</v>
       </c>
     </row>
     <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3070" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3071" s="1">
-        <v>68.968309081304341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3072" s="1">
-        <v>19.472203813091269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3073" spans="1:1" x14ac:dyDescent="0.25">
@@ -15775,47 +15775,47 @@
     </row>
     <row r="3082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3082" s="1">
-        <v>10.196034151510073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3083" s="1">
-        <v>30.972052581377135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3084" s="1">
-        <v>29.667302843830591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3085" s="1">
-        <v>24.555784774872635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3086" s="1">
-        <v>35.489484463529863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3087" s="1">
-        <v>36.603908838253169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3088" s="1">
-        <v>36.883193607078304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3089" s="1">
-        <v>33.076560230117465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3090" s="1">
-        <v>33.451908291330341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3091" spans="1:1" x14ac:dyDescent="0.25">
@@ -15920,117 +15920,117 @@
     </row>
     <row r="3111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3111" s="1">
-        <v>11.760889734948416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3112" s="1">
-        <v>84.849021569243746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3113" s="1">
-        <v>95</v>
+        <v>3.6614590291329225</v>
       </c>
     </row>
     <row r="3114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3114" s="1">
-        <v>95</v>
+        <v>55.704323671813981</v>
       </c>
     </row>
     <row r="3115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3115" s="1">
-        <v>95</v>
+        <v>62.7283122314766</v>
       </c>
     </row>
     <row r="3116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3116" s="1">
-        <v>95</v>
+        <v>46.569900306703474</v>
       </c>
     </row>
     <row r="3117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3117" s="1">
-        <v>58.020044354168085</v>
+        <v>18.601862535986267</v>
       </c>
     </row>
     <row r="3118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3118" s="1">
-        <v>75.87204273369106</v>
+        <v>30.972042733691062</v>
       </c>
     </row>
     <row r="3119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3119" s="1">
-        <v>77.147448459798682</v>
+        <v>28.601993914344131</v>
       </c>
     </row>
     <row r="3120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3120" s="1">
-        <v>47.394291753216166</v>
+        <v>10.512473571397987</v>
       </c>
     </row>
     <row r="3121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3121" s="1">
-        <v>61.787913938528952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3122" s="1">
-        <v>54.492738169904477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3123" s="1">
-        <v>59.901562566331123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3124" s="1">
-        <v>54.313562952764038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3125" s="1">
-        <v>66.262324679719569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3126" s="1">
-        <v>77.740025803417552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3127" s="1">
-        <v>69.597385785061476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3128" s="1">
-        <v>68.466682434515789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3129" s="1">
-        <v>81.272335872650174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3130" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3131" s="1">
-        <v>95</v>
+        <v>30.845651054100799</v>
       </c>
     </row>
     <row r="3132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3132" s="1">
-        <v>95</v>
+        <v>54.372045145924083</v>
       </c>
     </row>
     <row r="3133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3133" s="1">
-        <v>95</v>
+        <v>86.635656514071044</v>
       </c>
     </row>
     <row r="3134" spans="1:1" x14ac:dyDescent="0.25">
@@ -16065,17 +16065,17 @@
     </row>
     <row r="3140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3140" s="1">
-        <v>95</v>
+        <v>80.815223743477688</v>
       </c>
     </row>
     <row r="3141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3141" s="1">
-        <v>95</v>
+        <v>3.0613716521540315</v>
       </c>
     </row>
     <row r="3142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3142" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143" spans="1:1" x14ac:dyDescent="0.25">
@@ -16170,47 +16170,47 @@
     </row>
     <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3161" s="1">
-        <v>63.525097880172112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3162" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3163" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3164" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3165" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3166" s="1">
-        <v>48.489326192172619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3167" s="1">
-        <v>42.209995831083923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3168" s="1">
-        <v>22.210792698633057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3169" s="1">
-        <v>9.5786040224730726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3170" spans="1:1" x14ac:dyDescent="0.25">
@@ -16220,37 +16220,37 @@
     </row>
     <row r="3171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3171" s="1">
-        <v>52.80167029971021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3172" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3173" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3174" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3175" s="1">
-        <v>95</v>
+        <v>14.916803366376335</v>
       </c>
     </row>
     <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3176" s="1">
-        <v>95</v>
+        <v>54.07188059596627</v>
       </c>
     </row>
     <row r="3177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3177" s="1">
-        <v>95</v>
+        <v>81.745144906482679</v>
       </c>
     </row>
     <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
@@ -16300,22 +16300,22 @@
     </row>
     <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3187" s="1">
-        <v>95</v>
+        <v>31.715511648146094</v>
       </c>
     </row>
     <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3188" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3189" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3190" s="1">
-        <v>23.909853014367847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3191" spans="1:1" x14ac:dyDescent="0.25">
@@ -16415,57 +16415,57 @@
     </row>
     <row r="3210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3210" s="1">
-        <v>8.7836644793999685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3211" s="1">
-        <v>16.654874581428739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3212" s="1">
-        <v>25.450542287156271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3213" s="1">
-        <v>65.854989456588626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3214" s="1">
-        <v>87.027714982995178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3215" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3216" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3217" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3218" s="1">
-        <v>95</v>
+        <v>18.730104687000875</v>
       </c>
     </row>
     <row r="3219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3219" s="1">
-        <v>95</v>
+        <v>68.027072669926127</v>
       </c>
     </row>
     <row r="3220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3220" s="1">
-        <v>95</v>
+        <v>89.665830306448228</v>
       </c>
     </row>
     <row r="3221" spans="1:1" x14ac:dyDescent="0.25">
@@ -16520,37 +16520,37 @@
     </row>
     <row r="3231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3231" s="1">
-        <v>95</v>
+        <v>88.01226103839042</v>
       </c>
     </row>
     <row r="3232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3232" s="1">
-        <v>95</v>
+        <v>69.372714842720455</v>
       </c>
     </row>
     <row r="3233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3233" s="1">
-        <v>95</v>
+        <v>81.321180328577043</v>
       </c>
     </row>
     <row r="3234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3234" s="1">
-        <v>95</v>
+        <v>36.775194269686381</v>
       </c>
     </row>
     <row r="3235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3235" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3236" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3237" s="1">
-        <v>16.831118843435863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3238" spans="1:1" x14ac:dyDescent="0.25">
@@ -16645,67 +16645,67 @@
     </row>
     <row r="3256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3256" s="1">
-        <v>3.2916176059688613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3257" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3258" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3259" s="1">
-        <v>95</v>
+        <v>31.606946263528567</v>
       </c>
     </row>
     <row r="3260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3260" s="1">
-        <v>95</v>
+        <v>57.343713027115996</v>
       </c>
     </row>
     <row r="3261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3261" s="1">
-        <v>95</v>
+        <v>62.47944100273736</v>
       </c>
     </row>
     <row r="3262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3262" s="1">
-        <v>95</v>
+        <v>76.330034006878009</v>
       </c>
     </row>
     <row r="3263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3263" s="1">
-        <v>95</v>
+        <v>88.798865635586552</v>
       </c>
     </row>
     <row r="3264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3264" s="1">
-        <v>95</v>
+        <v>60.729310146746784</v>
       </c>
     </row>
     <row r="3265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3265" s="1">
-        <v>95</v>
+        <v>85.633131988330021</v>
       </c>
     </row>
     <row r="3266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3266" s="1">
-        <v>95</v>
+        <v>82.531760392701983</v>
       </c>
     </row>
     <row r="3267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3267" s="1">
-        <v>95</v>
+        <v>81.322581973916968</v>
       </c>
     </row>
     <row r="3268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3268" s="1">
-        <v>95</v>
+        <v>93.6800337902867</v>
       </c>
     </row>
     <row r="3269" spans="1:1" x14ac:dyDescent="0.25">
@@ -16720,17 +16720,17 @@
     </row>
     <row r="3271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3271" s="1">
-        <v>95</v>
+        <v>84.281235155318342</v>
       </c>
     </row>
     <row r="3272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3272" s="1">
-        <v>95</v>
+        <v>88.311293924956232</v>
       </c>
     </row>
     <row r="3273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3273" s="1">
-        <v>95</v>
+        <v>87.200855107684887</v>
       </c>
     </row>
     <row r="3274" spans="1:1" x14ac:dyDescent="0.25">
@@ -16740,52 +16740,52 @@
     </row>
     <row r="3275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3275" s="1">
-        <v>95</v>
+        <v>92.197298973555846</v>
       </c>
     </row>
     <row r="3276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3276" s="1">
-        <v>95</v>
+        <v>78.945384843814963</v>
       </c>
     </row>
     <row r="3277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3277" s="1">
-        <v>95</v>
+        <v>65.885113421067587</v>
       </c>
     </row>
     <row r="3278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3278" s="1">
-        <v>95</v>
+        <v>42.269832849757108</v>
       </c>
     </row>
     <row r="3279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3279" s="1">
-        <v>95</v>
+        <v>19.893081778891279</v>
       </c>
     </row>
     <row r="3280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3283" s="1">
-        <v>50.341158632792926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3284" s="1">
-        <v>17.606866151065415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3285" spans="1:1" x14ac:dyDescent="0.25">
@@ -16880,27 +16880,27 @@
     </row>
     <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3303" s="1">
-        <v>92.704093375768778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3304" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3305" s="1">
-        <v>95</v>
+        <v>28.619013667142497</v>
       </c>
     </row>
     <row r="3306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3306" s="1">
-        <v>95</v>
+        <v>62.752452052581674</v>
       </c>
     </row>
     <row r="3307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3307" s="1">
-        <v>95</v>
+        <v>83.60209694917765</v>
       </c>
     </row>
     <row r="3308" spans="1:1" x14ac:dyDescent="0.25">
@@ -16910,12 +16910,12 @@
     </row>
     <row r="3309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3309" s="1">
-        <v>95</v>
+        <v>85.827252480866861</v>
       </c>
     </row>
     <row r="3310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3310" s="1">
-        <v>95</v>
+        <v>89.405098383343571</v>
       </c>
     </row>
     <row r="3311" spans="1:1" x14ac:dyDescent="0.25">
@@ -16925,17 +16925,17 @@
     </row>
     <row r="3312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3312" s="1">
-        <v>95</v>
+        <v>77.389352245986728</v>
       </c>
     </row>
     <row r="3313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3313" s="1">
-        <v>95</v>
+        <v>72.634057691199885</v>
       </c>
     </row>
     <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3314" s="1">
-        <v>95</v>
+        <v>79.026436800236922</v>
       </c>
     </row>
     <row r="3315" spans="1:1" x14ac:dyDescent="0.25">
@@ -16950,72 +16950,72 @@
     </row>
     <row r="3317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3317" s="1">
-        <v>95</v>
+        <v>67.392797833597413</v>
       </c>
     </row>
     <row r="3318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3318" s="1">
-        <v>95</v>
+        <v>57.64785393406563</v>
       </c>
     </row>
     <row r="3319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3319" s="1">
-        <v>95</v>
+        <v>29.004012238106903</v>
       </c>
     </row>
     <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3320" s="1">
-        <v>95</v>
+        <v>8.6085900208201558</v>
       </c>
     </row>
     <row r="3321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3321" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3322" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3323" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3324" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3325" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3326" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3327" s="1">
-        <v>92.56645942358405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3328" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3329" s="1">
-        <v>84.244378010927491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3330" s="1">
-        <v>40.18603872706565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3331" spans="1:1" x14ac:dyDescent="0.25">
@@ -17115,157 +17115,157 @@
     </row>
     <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3350" s="1">
-        <v>50.113188552346088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3351" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3352" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3353" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3354" s="1">
-        <v>95</v>
+        <v>37.682650958511807</v>
       </c>
     </row>
     <row r="3355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3355" s="1">
-        <v>95</v>
+        <v>48.791067842377103</v>
       </c>
     </row>
     <row r="3356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3356" s="1">
-        <v>95</v>
+        <v>60.785101101055218</v>
       </c>
     </row>
     <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3357" s="1">
-        <v>95</v>
+        <v>31.177375541905167</v>
       </c>
     </row>
     <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3358" s="1">
-        <v>95</v>
+        <v>19.051679720159235</v>
       </c>
     </row>
     <row r="3359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3359" s="1">
-        <v>95</v>
+        <v>2.6576699246929079</v>
       </c>
     </row>
     <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3360" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3361" s="1">
-        <v>62.555839906285726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3362" s="1">
-        <v>43.164205475629352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3363" s="1">
-        <v>14.086819895777561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3364" s="1">
-        <v>25.781667685665145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3365" s="1">
-        <v>39.535284462819767</v>
+        <v>0.26255719009249417</v>
       </c>
     </row>
     <row r="3366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3366" s="1">
-        <v>44.753574214833947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3367" s="1">
-        <v>48.231094913703302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3368" s="1">
-        <v>49.695349790843288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3369" s="1">
-        <v>48.899463322347003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3370" s="1">
-        <v>61.893536508575842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3371" s="1">
-        <v>68.560991374041976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3372" s="1">
-        <v>75.02824343867124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3373" s="1">
-        <v>76.838389276666604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3374" s="1">
-        <v>58.659540251172196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3375" s="1">
-        <v>57.481263237446534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3376" s="1">
-        <v>75.381264575428901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3377" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3378" s="1">
-        <v>81.238128803715469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3379" s="1">
-        <v>47.644016080224851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3380" s="1">
-        <v>12.528495867165523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3381" spans="1:1" x14ac:dyDescent="0.25">
@@ -17365,52 +17365,52 @@
     </row>
     <row r="3400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3400" s="1">
-        <v>76.34381676948135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3401" s="1">
-        <v>95</v>
+        <v>28.678445927361771</v>
       </c>
     </row>
     <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3402" s="1">
-        <v>95</v>
+        <v>53.33078490567685</v>
       </c>
     </row>
     <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3403" s="1">
-        <v>94.930301665989987</v>
+        <v>39.121210756899067</v>
       </c>
     </row>
     <row r="3404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3404" s="1">
-        <v>47.283390743626939</v>
+        <v>21.656118016354213</v>
       </c>
     </row>
     <row r="3405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3405" s="1">
-        <v>29.81979934774921</v>
+        <v>13.437981165931026</v>
       </c>
     </row>
     <row r="3406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3406" s="1">
-        <v>17.759978365328571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3407" s="1">
-        <v>27.138096725477045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3408" s="1">
-        <v>5.3808070621198564E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3409" s="1">
-        <v>3.4303639884477723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
@@ -17420,97 +17420,97 @@
     </row>
     <row r="3411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3411" s="1">
-        <v>3.5504700906817974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3412" s="1">
-        <v>24.502067047469957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3413" s="1">
-        <v>17.665406765915741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3414" s="1">
-        <v>6.5120547313222144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3415" s="1">
-        <v>0.76914274729644438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3416" s="1">
-        <v>16.564072063861172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3417" s="1">
-        <v>39.688497369332566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3418" s="1">
-        <v>57.697398276011072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3419" s="1">
-        <v>77.833283201357943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3420" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3421" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3422" s="1">
-        <v>95</v>
+        <v>8.6253460173975149</v>
       </c>
     </row>
     <row r="3423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3423" s="1">
-        <v>95</v>
+        <v>20.984696667063606</v>
       </c>
     </row>
     <row r="3424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3424" s="1">
-        <v>95</v>
+        <v>34.566600450236514</v>
       </c>
     </row>
     <row r="3425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3425" s="1">
-        <v>95</v>
+        <v>40.052372621744261</v>
       </c>
     </row>
     <row r="3426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3426" s="1">
-        <v>95</v>
+        <v>36.312711785342636</v>
       </c>
     </row>
     <row r="3427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3427" s="1">
-        <v>95</v>
+        <v>6.0588214843348558</v>
       </c>
     </row>
     <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3428" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3429" s="1">
-        <v>43.950356329480677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3430" spans="1:1" x14ac:dyDescent="0.25">
@@ -17665,37 +17665,37 @@
     </row>
     <row r="3460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3460" s="1">
-        <v>52.535790420177221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3461" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3463" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3464" s="1">
-        <v>95</v>
+        <v>14.739787391567752</v>
       </c>
     </row>
     <row r="3465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3465" s="1">
-        <v>95</v>
+        <v>34.501522927568772</v>
       </c>
     </row>
     <row r="3466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3466" s="1">
-        <v>95</v>
+        <v>68.921019203735156</v>
       </c>
     </row>
     <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
@@ -17735,32 +17735,32 @@
     </row>
     <row r="3474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3474" s="1">
-        <v>95</v>
+        <v>80.254710740489017</v>
       </c>
     </row>
     <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3475" s="1">
-        <v>95</v>
+        <v>44.957915435642164</v>
       </c>
     </row>
     <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3476" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3477" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3478" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3479" s="1">
-        <v>5.3727895631210645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3480" spans="1:1" x14ac:dyDescent="0.25">
@@ -17875,112 +17875,112 @@
     </row>
     <row r="3502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3502" s="1">
-        <v>23.348994986479656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3503" s="1">
-        <v>50.165478230863648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3504" s="1">
-        <v>66.59742758633962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3505" s="1">
-        <v>91.542684872298025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3506" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3507" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3508" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3509" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3510" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3511" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3512" s="1">
-        <v>95</v>
+        <v>0.47278599021336215</v>
       </c>
     </row>
     <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3513" s="1">
-        <v>95</v>
+        <v>2.7969772190593587</v>
       </c>
     </row>
     <row r="3514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3514" s="1">
-        <v>95</v>
+        <v>7.068307723998557</v>
       </c>
     </row>
     <row r="3515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3515" s="1">
-        <v>95</v>
+        <v>19.54082285273347</v>
       </c>
     </row>
     <row r="3516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3516" s="1">
-        <v>95</v>
+        <v>19.816962512592646</v>
       </c>
     </row>
     <row r="3517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3517" s="1">
-        <v>95</v>
+        <v>23.516706452371348</v>
       </c>
     </row>
     <row r="3518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3518" s="1">
-        <v>95</v>
+        <v>17.781890616755433</v>
       </c>
     </row>
     <row r="3519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3519" s="1">
-        <v>95</v>
+        <v>16.015506927091984</v>
       </c>
     </row>
     <row r="3520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3520" s="1">
-        <v>95</v>
+        <v>27.874974987947759</v>
       </c>
     </row>
     <row r="3521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3521" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3522" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3523" s="1">
-        <v>66.144801744693325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3524" spans="1:1" x14ac:dyDescent="0.25">
@@ -18090,132 +18090,132 @@
     </row>
     <row r="3545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3545" s="1">
-        <v>45.175254417099943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3546" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3547" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3548" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3549" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3550" s="1">
-        <v>95</v>
+        <v>11.189361020059319</v>
       </c>
     </row>
     <row r="3551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3551" s="1">
-        <v>95</v>
+        <v>5.1106511338998395</v>
       </c>
     </row>
     <row r="3552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3552" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3553" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3554" s="1">
-        <v>95</v>
+        <v>11.189344671235665</v>
       </c>
     </row>
     <row r="3555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3555" s="1">
-        <v>95</v>
+        <v>12.431934355464296</v>
       </c>
     </row>
     <row r="3556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3556" s="1">
-        <v>95</v>
+        <v>10.236739448659748</v>
       </c>
     </row>
     <row r="3557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3557" s="1">
-        <v>95</v>
+        <v>9.1799008490737162</v>
       </c>
     </row>
     <row r="3558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3558" s="1">
-        <v>95</v>
+        <v>4.3519850035217713</v>
       </c>
     </row>
     <row r="3559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3559" s="1">
-        <v>95</v>
+        <v>4.4303176718772441</v>
       </c>
     </row>
     <row r="3560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3560" s="1">
-        <v>95</v>
+        <v>9.2420355603560385</v>
       </c>
     </row>
     <row r="3561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3561" s="1">
-        <v>95</v>
+        <v>29.204226320379444</v>
       </c>
     </row>
     <row r="3562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3562" s="1">
-        <v>95</v>
+        <v>25.197442350224229</v>
       </c>
     </row>
     <row r="3563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3563" s="1">
-        <v>95</v>
+        <v>9.2568005593525822</v>
       </c>
     </row>
     <row r="3564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3564" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3565" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3566" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3567" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3568" s="1">
-        <v>83.459178552137374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3569" s="1">
-        <v>65.750234938319267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3570" s="1">
-        <v>22.859679340606238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3571" spans="1:1" x14ac:dyDescent="0.25">
@@ -18320,137 +18320,137 @@
     </row>
     <row r="3591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3591" s="1">
-        <v>68.322901947905237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3593" s="1">
-        <v>95</v>
+        <v>21.873806062352362</v>
       </c>
     </row>
     <row r="3594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3594" s="1">
-        <v>95</v>
+        <v>64.045825966042798</v>
       </c>
     </row>
     <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3595" s="1">
-        <v>95</v>
+        <v>78.120642820657224</v>
       </c>
     </row>
     <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3596" s="1">
-        <v>95</v>
+        <v>76.560026227554374</v>
       </c>
     </row>
     <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3597" s="1">
-        <v>95</v>
+        <v>41.497252273491227</v>
       </c>
     </row>
     <row r="3598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3598" s="1">
-        <v>95</v>
+        <v>48.004617786707989</v>
       </c>
     </row>
     <row r="3599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3599" s="1">
-        <v>95</v>
+        <v>34.34561512987981</v>
       </c>
     </row>
     <row r="3600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3600" s="1">
-        <v>95</v>
+        <v>7.7204798006412094</v>
       </c>
     </row>
     <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3601" s="1">
-        <v>95</v>
+        <v>22.23382270510313</v>
       </c>
     </row>
     <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3602" s="1">
-        <v>95</v>
+        <v>38.105154558854323</v>
       </c>
     </row>
     <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3603" s="1">
-        <v>95</v>
+        <v>42.826658468514758</v>
       </c>
     </row>
     <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3604" s="1">
-        <v>95</v>
+        <v>24.788315670437424</v>
       </c>
     </row>
     <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3605" s="1">
-        <v>95</v>
+        <v>17.349566002777696</v>
       </c>
     </row>
     <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3606" s="1">
-        <v>95</v>
+        <v>5.5842469198291749</v>
       </c>
     </row>
     <row r="3607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3607" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3608" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3609" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3610" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3611" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3612" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3613" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3614" s="1">
-        <v>84.517454234378448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3615" s="1">
-        <v>75.858343073573025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3616" s="1">
-        <v>63.549620143816277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3617" s="1">
-        <v>24.827488738269857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:1" x14ac:dyDescent="0.25">
@@ -18575,7 +18575,7 @@
     </row>
     <row r="3642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3642" s="1">
-        <v>16.049882591146112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3643" spans="1:1" x14ac:dyDescent="0.25">
@@ -18890,62 +18890,62 @@
     </row>
     <row r="3705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3705" s="1">
-        <v>2.613639464714602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3706" s="1">
-        <v>63.701087714886718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3707" s="1">
-        <v>65.413206265058022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3708" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3709" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3710" s="1">
-        <v>95</v>
+        <v>3.9202571300975415</v>
       </c>
     </row>
     <row r="3711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3711" s="1">
-        <v>95</v>
+        <v>18.232795123402802</v>
       </c>
     </row>
     <row r="3712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3712" s="1">
-        <v>95</v>
+        <v>44.363562355014416</v>
       </c>
     </row>
     <row r="3713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3713" s="1">
-        <v>95</v>
+        <v>46.386859456184816</v>
       </c>
     </row>
     <row r="3714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3714" s="1">
-        <v>95</v>
+        <v>43.177204806565996</v>
       </c>
     </row>
     <row r="3715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3715" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3716" s="1">
-        <v>79.705725694065194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717" spans="1:1" x14ac:dyDescent="0.25">
